--- a/localidadesdifarlib.xlsx
+++ b/localidadesdifarlib.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\SQLDATAEXTRACTOR\rselenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LBarrios\Desktop\rselenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="205">
   <si>
     <t>DEPARTAM</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>CORRALES</t>
+  </si>
+  <si>
+    <t>SALITRAL</t>
   </si>
 </sst>
 </file>
@@ -2820,10 +2823,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3182,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>CONCATENATE(B2,C2)</f>
+        <f t="shared" ref="D2:D33" si="0">CONCATENATE(B2,C2)</f>
         <v>ALTO AMAZONASYURIMAGUAS</v>
       </c>
     </row>
@@ -3194,7 +3197,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>CONCATENATE(B3,C3)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPEAscope</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -3212,7 +3215,7 @@
         <v>166</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>CONCATENATE(B4,C4)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPECASAGRANDE</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -3230,7 +3233,7 @@
         <v>47</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>CONCATENATE(B5,C5)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPEChicama</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -3248,7 +3251,7 @@
         <v>159</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>CONCATENATE(B6,C6)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPECHICLIN</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -3266,7 +3269,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f>CONCATENATE(B7,C7)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPEChocope</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -3284,7 +3287,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f>CONCATENATE(B8,C8)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPEPaijan</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -3302,7 +3305,7 @@
         <v>193</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f>CONCATENATE(B9,C9)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPESANTIAGO DE CAO</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -3320,7 +3323,7 @@
         <v>151</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f>CONCATENATE(B10,C10)</f>
+        <f t="shared" si="0"/>
         <v>ASCOPESAUSAL</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -3338,7 +3341,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>CONCATENATE(B11,C11)</f>
+        <f t="shared" si="0"/>
         <v>AYABACAAYABACA</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -3356,7 +3359,7 @@
         <v>183</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>CONCATENATE(B12,C12)</f>
+        <f t="shared" si="0"/>
         <v>AYABACAPAIMAS</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -3374,7 +3377,7 @@
         <v>104</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f>CONCATENATE(B13,C13)</f>
+        <f t="shared" si="0"/>
         <v>AYABACASUYO</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -3392,7 +3395,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>CONCATENATE(B14,C14)</f>
+        <f t="shared" si="0"/>
         <v>BAGUABAGUA</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -3410,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f>CONCATENATE(B15,C15)</f>
+        <f t="shared" si="0"/>
         <v>BAGUABAGUA (B.CHICA)</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -3428,7 +3431,7 @@
         <v>181</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f>CONCATENATE(B16,C16)</f>
+        <f t="shared" si="0"/>
         <v>BAGUAIMAZA</v>
       </c>
     </row>
@@ -3443,7 +3446,7 @@
         <v>93</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>CONCATENATE(B17,C17)</f>
+        <f t="shared" si="0"/>
         <v>BARRANCABARRANCA</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -3461,7 +3464,7 @@
         <v>150</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>CONCATENATE(B18,C18)</f>
+        <f t="shared" si="0"/>
         <v>BARRANCAPARAMONGA</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -3479,7 +3482,7 @@
         <v>195</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>CONCATENATE(B19,C19)</f>
+        <f t="shared" si="0"/>
         <v>BARRANCAPATIVILCA</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -3497,7 +3500,7 @@
         <v>184</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>CONCATENATE(B20,C20)</f>
+        <f t="shared" si="0"/>
         <v>BARRANCASUPE</v>
       </c>
     </row>
@@ -3512,7 +3515,7 @@
         <v>154</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f>CONCATENATE(B21,C21)</f>
+        <f t="shared" si="0"/>
         <v>BELLAVISTABELLAVISTA</v>
       </c>
     </row>
@@ -3527,7 +3530,7 @@
         <v>169</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>CONCATENATE(B22,C22)</f>
+        <f t="shared" si="0"/>
         <v>BELLAVISTASAN PABLO</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -3545,7 +3548,7 @@
         <v>156</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>CONCATENATE(B23,C23)</f>
+        <f t="shared" si="0"/>
         <v>BELLAVISTASAN RAFAEL</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3563,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f>CONCATENATE(B24,C24)</f>
+        <f t="shared" si="0"/>
         <v>BONGARAJAZAN</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -3581,7 +3584,7 @@
         <v>147</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f>CONCATENATE(B25,C25)</f>
+        <f t="shared" si="0"/>
         <v>CAJABAMBACajabamba</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -3599,7 +3602,7 @@
         <v>33</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>CONCATENATE(B26,C26)</f>
+        <f t="shared" si="0"/>
         <v>CAJAMARCACAJAMARCA</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3617,7 +3620,7 @@
         <v>202</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>CONCATENATE(B27,C27)</f>
+        <f t="shared" si="0"/>
         <v>CAJAMARCAMAGDALENA</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -3635,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f>CONCATENATE(B28,C28)</f>
+        <f t="shared" si="0"/>
         <v>CAJAMARCASAN MARCOS</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3653,7 +3656,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>CONCATENATE(B29,C29)</f>
+        <f t="shared" si="0"/>
         <v>CARAZCARHUAZ</v>
       </c>
     </row>
@@ -3668,7 +3671,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f>CONCATENATE(B30,C30)</f>
+        <f t="shared" si="0"/>
         <v>CARHUAZCARHUAZ</v>
       </c>
     </row>
@@ -3683,7 +3686,7 @@
         <v>17</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f>CONCATENATE(B31,C31)</f>
+        <f t="shared" si="0"/>
         <v>CASMACASMA</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3701,7 +3704,7 @@
         <v>106</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>CONCATENATE(B32,C32)</f>
+        <f t="shared" si="0"/>
         <v>CASTILLACASTILLA</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3719,7 +3722,7 @@
         <v>71</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>CONCATENATE(B33,C33)</f>
+        <f t="shared" si="0"/>
         <v>CAYALTICAYALTI</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3737,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f>CONCATENATE(B34,C34)</f>
+        <f t="shared" ref="D34:D65" si="1">CONCATENATE(B34,C34)</f>
         <v>CELENDINCELENDIN</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3755,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f>CONCATENATE(B35,C35)</f>
+        <f t="shared" si="1"/>
         <v>CHACHAPOYASCHACHAPOYAS</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3773,7 +3776,7 @@
         <v>92</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>CONCATENATE(B36,C36)</f>
+        <f t="shared" si="1"/>
         <v>CHANCAYCHANCAY</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3791,7 +3794,7 @@
         <v>50</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>CONCATENATE(B37,C37)</f>
+        <f t="shared" si="1"/>
         <v>CHEPENCHEPEN</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3809,7 +3812,7 @@
         <v>51</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f>CONCATENATE(B38,C38)</f>
+        <f t="shared" si="1"/>
         <v>CHEPENPACANGA</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -3827,7 +3830,7 @@
         <v>164</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f>CONCATENATE(B39,C39)</f>
+        <f t="shared" si="1"/>
         <v>CHEPENPUEBLO NUEVO</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -3845,7 +3848,7 @@
         <v>71</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f>CONCATENATE(B40,C40)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOCAYALTI</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -3863,7 +3866,7 @@
         <v>72</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f>CONCATENATE(B41,C41)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOCHICLAYO</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3881,7 +3884,7 @@
         <v>73</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>CONCATENATE(B42,C42)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOCHONGOYAPE</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3899,7 +3902,7 @@
         <v>144</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f>CONCATENATE(B43,C43)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOETEN</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3917,7 +3920,7 @@
         <v>74</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>CONCATENATE(B44,C44)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOJOSE LEONARDO ORTIZ</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -3935,7 +3938,7 @@
         <v>75</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f>CONCATENATE(B45,C45)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOLa Victoria</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -3953,7 +3956,7 @@
         <v>76</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f>CONCATENATE(B46,C46)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOLAGUNAS</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -3971,7 +3974,7 @@
         <v>77</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f>CONCATENATE(B47,C47)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOLEONARDO ORTIZ</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -3989,7 +3992,7 @@
         <v>78</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f>CONCATENATE(B48,C48)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOMONSEFU</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4007,7 +4010,7 @@
         <v>171</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f>CONCATENATE(B49,C49)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOMOSHOQUEQUE</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4025,7 +4028,7 @@
         <v>162</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f>CONCATENATE(B50,C50)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOOYOTUN</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4043,7 +4046,7 @@
         <v>79</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>CONCATENATE(B51,C51)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOPATAPO</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4061,7 +4064,7 @@
         <v>80</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>CONCATENATE(B52,C52)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOPIMENTEL</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4079,7 +4082,7 @@
         <v>172</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f>CONCATENATE(B53,C53)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOPOMALCA</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4097,7 +4100,7 @@
         <v>81</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f>CONCATENATE(B54,C54)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOPUCALA</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4115,7 +4118,7 @@
         <v>82</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f>CONCATENATE(B55,C55)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOREQUE</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4133,7 +4136,7 @@
         <v>83</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f>CONCATENATE(B56,C56)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOSANTA ROSA</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4151,7 +4154,7 @@
         <v>84</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>CONCATENATE(B57,C57)</f>
+        <f t="shared" si="1"/>
         <v>CHICLAYOTUMAN</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4169,7 +4172,7 @@
         <v>165</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f>CONCATENATE(B58,C58)</f>
+        <f t="shared" si="1"/>
         <v>CHOTACHOTA</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4187,7 +4190,7 @@
         <v>198</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>CONCATENATE(B59,C59)</f>
+        <f t="shared" si="1"/>
         <v>CONTRALMIRANTE VILLARZORRITOS</v>
       </c>
     </row>
@@ -4202,7 +4205,7 @@
         <v>37</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f>CONCATENATE(B60,C60)</f>
+        <f t="shared" si="1"/>
         <v>CONTUMAZAYONAN</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4220,7 +4223,7 @@
         <v>38</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f>CONCATENATE(B61,C61)</f>
+        <f t="shared" si="1"/>
         <v>CUTERVOCUTERVO</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4238,7 +4241,7 @@
         <v>117</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>CONCATENATE(B62,C62)</f>
+        <f t="shared" si="1"/>
         <v>EL DORADOSAN JOSE DE SISA</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4256,7 +4259,7 @@
         <v>142</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f>CONCATENATE(B63,C63)</f>
+        <f t="shared" si="1"/>
         <v>FERREÑAFEFERREÑAFE</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4274,7 +4277,7 @@
         <v>164</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f>CONCATENATE(B64,C64)</f>
+        <f t="shared" si="1"/>
         <v>FERREÑAFEPUEBLO NUEVO</v>
       </c>
     </row>
@@ -4289,7 +4292,7 @@
         <v>191</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>CONCATENATE(B65,C65)</f>
+        <f t="shared" si="1"/>
         <v>GRAN CHIMUCASCAS</v>
       </c>
     </row>
@@ -4304,7 +4307,7 @@
         <v>96</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f>CONCATENATE(B66,C66)</f>
+        <f t="shared" ref="D66:D97" si="2">CONCATENATE(B66,C66)</f>
         <v>HUACHOHUACHO</v>
       </c>
     </row>
@@ -4319,7 +4322,7 @@
         <v>149</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f>CONCATENATE(B67,C67)</f>
+        <f t="shared" si="2"/>
         <v>HUALGAYOCBAMBAMARCA</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4337,7 +4340,7 @@
         <v>119</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f>CONCATENATE(B68,C68)</f>
+        <f t="shared" si="2"/>
         <v>HUALLAGASAPOSOA</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4355,7 +4358,7 @@
         <v>167</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>CONCATENATE(B69,C69)</f>
+        <f t="shared" si="2"/>
         <v>HUANCABAMBAHUANCABAMBA</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4373,7 +4376,7 @@
         <v>92</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f>CONCATENATE(B70,C70)</f>
+        <f t="shared" si="2"/>
         <v>HUARALCHANCAY</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4391,7 +4394,7 @@
         <v>94</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f>CONCATENATE(B71,C71)</f>
+        <f t="shared" si="2"/>
         <v>HUARALHUARAL</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4409,7 +4412,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f>CONCATENATE(B72,C72)</f>
+        <f t="shared" si="2"/>
         <v>HUARAZCARHUAZ</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4427,7 +4430,7 @@
         <v>19</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>CONCATENATE(B73,C73)</f>
+        <f t="shared" si="2"/>
         <v>HUARAZHUARAZ</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4445,7 +4448,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f>CONCATENATE(B74,C74)</f>
+        <f t="shared" si="2"/>
         <v>HUARAZINDEPENDENCIA</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4463,7 +4466,7 @@
         <v>188</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f>CONCATENATE(B75,C75)</f>
+        <f t="shared" si="2"/>
         <v>HUARAZJANGAS</v>
       </c>
     </row>
@@ -4478,7 +4481,7 @@
         <v>22</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>CONCATENATE(B76,C76)</f>
+        <f t="shared" si="2"/>
         <v>HUARMEYHUARMEY</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4496,7 +4499,7 @@
         <v>185</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>CONCATENATE(B77,C77)</f>
+        <f t="shared" si="2"/>
         <v>HUAURACALETA DE CARQUIN</v>
       </c>
     </row>
@@ -4511,7 +4514,7 @@
         <v>96</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>CONCATENATE(B78,C78)</f>
+        <f t="shared" si="2"/>
         <v>HUAURAHUACHO</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -4529,7 +4532,7 @@
         <v>199</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f>CONCATENATE(B79,C79)</f>
+        <f t="shared" si="2"/>
         <v>HUAURAHUALMAY</v>
       </c>
     </row>
@@ -4544,7 +4547,7 @@
         <v>95</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f>CONCATENATE(B80,C80)</f>
+        <f t="shared" si="2"/>
         <v>HUAURAHUAURA</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -4562,7 +4565,7 @@
         <v>97</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>CONCATENATE(B81,C81)</f>
+        <f t="shared" si="2"/>
         <v>HUAURASAYAN</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -4580,7 +4583,7 @@
         <v>98</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f>CONCATENATE(B82,C82)</f>
+        <f t="shared" si="2"/>
         <v>HUAURAVEGUETA</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -4598,7 +4601,7 @@
         <v>24</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f>CONCATENATE(B83,C83)</f>
+        <f t="shared" si="2"/>
         <v>HUAYLASCARAZ</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -4616,7 +4619,7 @@
         <v>39</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>CONCATENATE(B84,C84)</f>
+        <f t="shared" si="2"/>
         <v>JAENJAEN</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -4634,7 +4637,7 @@
         <v>177</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>CONCATENATE(B85,C85)</f>
+        <f t="shared" si="2"/>
         <v>JAENPUCARA</v>
       </c>
     </row>
@@ -4649,7 +4652,7 @@
         <v>187</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f>CONCATENATE(B86,C86)</f>
+        <f t="shared" si="2"/>
         <v>JULCANJulcan</v>
       </c>
     </row>
@@ -4664,7 +4667,7 @@
         <v>201</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f>CONCATENATE(B87,C87)</f>
+        <f t="shared" si="2"/>
         <v>LAMASCAYNARACHI</v>
       </c>
     </row>
@@ -4679,7 +4682,7 @@
         <v>158</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>CONCATENATE(B88,C88)</f>
+        <f t="shared" si="2"/>
         <v>LAMASLAMAS</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4697,7 +4700,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f>CONCATENATE(B89,C89)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUE ETEN</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4715,7 +4718,7 @@
         <v>86</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f>CONCATENATE(B90,C90)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUEJAYANCA</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4733,7 +4736,7 @@
         <v>70</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>CONCATENATE(B91,C91)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUELAMBAYEQUE</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4751,7 +4754,7 @@
         <v>78</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>CONCATENATE(B92,C92)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUEMONSEFU</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -4769,7 +4772,7 @@
         <v>145</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f>CONCATENATE(B93,C93)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUEMORROPE</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -4787,7 +4790,7 @@
         <v>87</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f>CONCATENATE(B94,C94)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUEMOTUPE</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4805,7 +4808,7 @@
         <v>88</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>CONCATENATE(B95,C95)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUEOLMOS</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4823,7 +4826,7 @@
         <v>89</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f>CONCATENATE(B96,C96)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUEPACORA</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -4841,7 +4844,7 @@
         <v>90</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f>CONCATENATE(B97,C97)</f>
+        <f t="shared" si="2"/>
         <v>LAMBAYEQUETUCUME</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4859,7 +4862,7 @@
         <v>121</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f>CONCATENATE(B98,C98)</f>
+        <f t="shared" ref="D98:D129" si="3">CONCATENATE(B98,C98)</f>
         <v>MARISCAL  CACERESHUICUNGO</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -4877,7 +4880,7 @@
         <v>122</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f>CONCATENATE(B99,C99)</f>
+        <f t="shared" si="3"/>
         <v>MARISCAL  CACERESJuanjui</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -4895,7 +4898,7 @@
         <v>107</v>
       </c>
       <c r="D100" s="1" t="str">
-        <f>CONCATENATE(B100,C100)</f>
+        <f t="shared" si="3"/>
         <v>MORROPONCHULUCANAS</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4913,7 +4916,7 @@
         <v>123</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>CONCATENATE(B101,C101)</f>
+        <f t="shared" si="3"/>
         <v>MOYOBAMBAMOYOBAMBA</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -4931,7 +4934,7 @@
         <v>124</v>
       </c>
       <c r="D102" s="1" t="str">
-        <f>CONCATENATE(B102,C102)</f>
+        <f t="shared" si="3"/>
         <v>MOYOBAMBASORITOR</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -4949,7 +4952,7 @@
         <v>53</v>
       </c>
       <c r="D103" s="1" t="str">
-        <f>CONCATENATE(B103,C103)</f>
+        <f t="shared" si="3"/>
         <v>OTUZCOOtuzco</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4967,7 +4970,7 @@
         <v>55</v>
       </c>
       <c r="D104" s="1" t="str">
-        <f>CONCATENATE(B104,C104)</f>
+        <f t="shared" si="3"/>
         <v>PACASMAYOGuadalupe</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -4985,7 +4988,7 @@
         <v>54</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>CONCATENATE(B105,C105)</f>
+        <f t="shared" si="3"/>
         <v>PACASMAYOPACASMAYO</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5003,7 +5006,7 @@
         <v>174</v>
       </c>
       <c r="D106" s="1" t="str">
-        <f>CONCATENATE(B106,C106)</f>
+        <f t="shared" si="3"/>
         <v>PACASMAYOSAN JOSE</v>
       </c>
     </row>
@@ -5018,7 +5021,7 @@
         <v>56</v>
       </c>
       <c r="D107" s="1" t="str">
-        <f>CONCATENATE(B107,C107)</f>
+        <f t="shared" si="3"/>
         <v>PACASMAYOSAN PEDRO DE LLOC</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -5036,7 +5039,7 @@
         <v>105</v>
       </c>
       <c r="D108" s="1" t="str">
-        <f>CONCATENATE(B108,C108)</f>
+        <f t="shared" si="3"/>
         <v>PAITAPAITA</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -5054,7 +5057,7 @@
         <v>125</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f>CONCATENATE(B109,C109)</f>
+        <f t="shared" si="3"/>
         <v>PICOTAPICOTA</v>
       </c>
     </row>
@@ -5069,7 +5072,7 @@
         <v>126</v>
       </c>
       <c r="D110" s="1" t="str">
-        <f>CONCATENATE(B110,C110)</f>
+        <f t="shared" si="3"/>
         <v>PICOTASAN HILARION</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -5087,7 +5090,7 @@
         <v>178</v>
       </c>
       <c r="D111" s="1" t="str">
-        <f>CONCATENATE(B111,C111)</f>
+        <f t="shared" si="3"/>
         <v>PIURA26 DE OCTUBRE</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5105,7 +5108,7 @@
         <v>106</v>
       </c>
       <c r="D112" s="1" t="str">
-        <f>CONCATENATE(B112,C112)</f>
+        <f t="shared" si="3"/>
         <v>PIURACASTILLA</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -5123,7 +5126,7 @@
         <v>170</v>
       </c>
       <c r="D113" s="1" t="str">
-        <f>CONCATENATE(B113,C113)</f>
+        <f t="shared" si="3"/>
         <v>PIURACATACAOS</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5141,7 +5144,7 @@
         <v>107</v>
       </c>
       <c r="D114" s="1" t="str">
-        <f>CONCATENATE(B114,C114)</f>
+        <f t="shared" si="3"/>
         <v>PIURACHULUCANAS</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5159,7 +5162,7 @@
         <v>192</v>
       </c>
       <c r="D115" s="1" t="str">
-        <f>CONCATENATE(B115,C115)</f>
+        <f t="shared" si="3"/>
         <v>PIURALA UNION</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5177,7 +5180,7 @@
         <v>143</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>CONCATENATE(B116,C116)</f>
+        <f t="shared" si="3"/>
         <v>PIURALAS LOMAS</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5195,7 +5198,7 @@
         <v>102</v>
       </c>
       <c r="D117" s="1" t="str">
-        <f>CONCATENATE(B117,C117)</f>
+        <f t="shared" si="3"/>
         <v>PIURAPIURA</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -5213,7 +5216,7 @@
         <v>175</v>
       </c>
       <c r="D118" s="1" t="str">
-        <f>CONCATENATE(B118,C118)</f>
+        <f t="shared" si="3"/>
         <v>PIURATAMBOGRANDE</v>
       </c>
     </row>
@@ -5228,7 +5231,7 @@
         <v>160</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f>CONCATENATE(B119,C119)</f>
+        <f t="shared" si="3"/>
         <v>PIURAVEINTISEIS DE OCTUBRE</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5246,7 +5249,7 @@
         <v>161</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f>CONCATENATE(B120,C120)</f>
+        <f t="shared" si="3"/>
         <v>POSOPEPOSOPE</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -5264,7 +5267,7 @@
         <v>26</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f>CONCATENATE(B121,C121)</f>
+        <f t="shared" si="3"/>
         <v>RECUAYCATAC</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -5282,7 +5285,7 @@
         <v>128</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f>CONCATENATE(B122,C122)</f>
+        <f t="shared" si="3"/>
         <v>RIOJA PARDO MIGUEL</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -5300,7 +5303,7 @@
         <v>129</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f>CONCATENATE(B123,C123)</f>
+        <f t="shared" si="3"/>
         <v>RIOJAELIAS SOPLIN VARGAS</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -5318,7 +5321,7 @@
         <v>130</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>CONCATENATE(B124,C124)</f>
+        <f t="shared" si="3"/>
         <v>RIOJANUEVA CAJAMARCA</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -5336,7 +5339,7 @@
         <v>131</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f>CONCATENATE(B125,C125)</f>
+        <f t="shared" si="3"/>
         <v>RIOJAPARDO MIGUEL</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -5354,7 +5357,7 @@
         <v>127</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>CONCATENATE(B126,C126)</f>
+        <f t="shared" si="3"/>
         <v>RIOJARIOJA</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -5372,7 +5375,7 @@
         <v>180</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f>CONCATENATE(B127,C127)</f>
+        <f t="shared" si="3"/>
         <v>RIOJASAN FERNANDO</v>
       </c>
     </row>
@@ -5387,7 +5390,7 @@
         <v>13</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f>CONCATENATE(B128,C128)</f>
+        <f t="shared" si="3"/>
         <v>RODRIGUEZ DE MENDOZASan Nicolas</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -5405,7 +5408,7 @@
         <v>40</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f>CONCATENATE(B129,C129)</f>
+        <f t="shared" si="3"/>
         <v>SAN IGNACIOSAN IGNACIO</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -5423,7 +5426,7 @@
         <v>42</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f>CONCATENATE(B130,C130)</f>
+        <f t="shared" ref="D130:D161" si="4">CONCATENATE(B130,C130)</f>
         <v>SAN MARCOSPEDRO GALVEZ</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -5441,7 +5444,7 @@
         <v>132</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f>CONCATENATE(B131,C131)</f>
+        <f t="shared" si="4"/>
         <v>SAN MARTINCHAZUTA</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -5459,7 +5462,7 @@
         <v>168</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>CONCATENATE(B132,C132)</f>
+        <f t="shared" si="4"/>
         <v>SAN MARTINJUAN GUERRA</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -5477,7 +5480,7 @@
         <v>133</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>CONCATENATE(B133,C133)</f>
+        <f t="shared" si="4"/>
         <v>SAN MARTINLA BANDA DE SHILCAYO</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -5495,7 +5498,7 @@
         <v>134</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>CONCATENATE(B134,C134)</f>
+        <f t="shared" si="4"/>
         <v>SAN MARTINMORALES</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -5513,7 +5516,7 @@
         <v>135</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>CONCATENATE(B135,C135)</f>
+        <f t="shared" si="4"/>
         <v>SAN MARTINSAUCE</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -5531,7 +5534,7 @@
         <v>136</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>CONCATENATE(B136,C136)</f>
+        <f t="shared" si="4"/>
         <v>SAN MARTINTARAPOTO</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -5549,7 +5552,7 @@
         <v>157</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>CONCATENATE(B137,C137)</f>
+        <f t="shared" si="4"/>
         <v>SAN MIGUELSAN MIGUEL</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -5567,7 +5570,7 @@
         <v>176</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>CONCATENATE(B138,C138)</f>
+        <f t="shared" si="4"/>
         <v>SANCHEZ CARRIONCHUGAY</v>
       </c>
     </row>
@@ -5582,7 +5585,7 @@
         <v>58</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f>CONCATENATE(B139,C139)</f>
+        <f t="shared" si="4"/>
         <v>SANCHEZ CARRIONHUAMACHUCO</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -5600,7 +5603,7 @@
         <v>43</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f>CONCATENATE(B140,C140)</f>
+        <f t="shared" si="4"/>
         <v>Santa CruzSanta Cruz</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -5618,7 +5621,7 @@
         <v>17</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f>CONCATENATE(B141,C141)</f>
+        <f t="shared" si="4"/>
         <v>SANTACASMA</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -5636,7 +5639,7 @@
         <v>29</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f>CONCATENATE(B142,C142)</f>
+        <f t="shared" si="4"/>
         <v>SANTAChimbote</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -5654,7 +5657,7 @@
         <v>173</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f>CONCATENATE(B143,C143)</f>
+        <f t="shared" si="4"/>
         <v>SANTACOISHCO</v>
       </c>
     </row>
@@ -5669,7 +5672,7 @@
         <v>30</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f>CONCATENATE(B144,C144)</f>
+        <f t="shared" si="4"/>
         <v>SANTAMORO</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -5687,7 +5690,7 @@
         <v>179</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f>CONCATENATE(B145,C145)</f>
+        <f t="shared" si="4"/>
         <v>SANTANEPEÑA</v>
       </c>
     </row>
@@ -5702,7 +5705,7 @@
         <v>31</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f>CONCATENATE(B146,C146)</f>
+        <f t="shared" si="4"/>
         <v>SANTANUEVO CHIMBOTE</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -5720,7 +5723,7 @@
         <v>27</v>
       </c>
       <c r="D147" s="1" t="str">
-        <f>CONCATENATE(B147,C147)</f>
+        <f t="shared" si="4"/>
         <v>SANTASANTA</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -5738,7 +5741,7 @@
         <v>108</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f>CONCATENATE(B148,C148)</f>
+        <f t="shared" si="4"/>
         <v>SECHURASECHURA</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -5756,7 +5759,7 @@
         <v>153</v>
       </c>
       <c r="D149" s="1" t="str">
-        <f>CONCATENATE(B149,C149)</f>
+        <f t="shared" si="4"/>
         <v>SECHURAVICE</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -5774,7 +5777,7 @@
         <v>194</v>
       </c>
       <c r="D150" s="1" t="str">
-        <f>CONCATENATE(B150,C150)</f>
+        <f t="shared" si="4"/>
         <v>SIHUASSIHUAS</v>
       </c>
     </row>
@@ -5789,7 +5792,7 @@
         <v>154</v>
       </c>
       <c r="D151" s="1" t="str">
-        <f>CONCATENATE(B151,C151)</f>
+        <f t="shared" si="4"/>
         <v>SULLANABELLAVISTA</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -5807,7 +5810,7 @@
         <v>182</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f>CONCATENATE(B152,C152)</f>
+        <f t="shared" si="4"/>
         <v>SULLANAIGNACIO ESCUDERO</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -5825,7 +5828,7 @@
         <v>196</v>
       </c>
       <c r="D153" s="1" t="str">
-        <f>CONCATENATE(B153,C153)</f>
+        <f t="shared" si="4"/>
         <v>SULLANAMiguel Checa</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -5843,7 +5846,7 @@
         <v>109</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f>CONCATENATE(B154,C154)</f>
+        <f t="shared" si="4"/>
         <v>SULLANASULLANA</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -5861,7 +5864,7 @@
         <v>111</v>
       </c>
       <c r="D155" s="1" t="str">
-        <f>CONCATENATE(B155,C155)</f>
+        <f t="shared" si="4"/>
         <v>TALARAEL ALTO</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -5879,7 +5882,7 @@
         <v>112</v>
       </c>
       <c r="D156" s="1" t="str">
-        <f>CONCATENATE(B156,C156)</f>
+        <f t="shared" si="4"/>
         <v>TALARALOS ORGANOS</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -5897,7 +5900,7 @@
         <v>113</v>
       </c>
       <c r="D157" s="1" t="str">
-        <f>CONCATENATE(B157,C157)</f>
+        <f t="shared" si="4"/>
         <v>TALARAMANCORA</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -5915,7 +5918,7 @@
         <v>114</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f>CONCATENATE(B158,C158)</f>
+        <f t="shared" si="4"/>
         <v>TALARAPARIÑAS</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -5933,7 +5936,7 @@
         <v>140</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f>CONCATENATE(B159,C159)</f>
+        <f t="shared" si="4"/>
         <v>TALARATalara</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -5951,7 +5954,7 @@
         <v>136</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f>CONCATENATE(B160,C160)</f>
+        <f t="shared" si="4"/>
         <v>TARAPOTOTARAPOTO</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -5969,7 +5972,7 @@
         <v>137</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f>CONCATENATE(B161,C161)</f>
+        <f t="shared" si="4"/>
         <v>TOCACHETOCACHE</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -5987,7 +5990,7 @@
         <v>60</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f>CONCATENATE(B162,C162)</f>
+        <f t="shared" ref="D162:D181" si="5">CONCATENATE(B162,C162)</f>
         <v>TRUJILLOEL BOSQUE</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -6005,7 +6008,7 @@
         <v>61</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f>CONCATENATE(B163,C163)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOEl Porvenir</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -6023,7 +6026,7 @@
         <v>62</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f>CONCATENATE(B164,C164)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOFLORENCIA DE MORA</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -6041,7 +6044,7 @@
         <v>63</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f>CONCATENATE(B165,C165)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOHuanchaco</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -6059,7 +6062,7 @@
         <v>64</v>
       </c>
       <c r="D166" s="1" t="str">
-        <f>CONCATENATE(B166,C166)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOLa Esperanza</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -6077,7 +6080,7 @@
         <v>65</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f>CONCATENATE(B167,C167)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOLaredo</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -6095,7 +6098,7 @@
         <v>163</v>
       </c>
       <c r="D168" s="1" t="str">
-        <f>CONCATENATE(B168,C168)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOMoche</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -6113,7 +6116,7 @@
         <v>139</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f>CONCATENATE(B169,C169)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOPOROTO</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -6131,7 +6134,7 @@
         <v>189</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f>CONCATENATE(B170,C170)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLORIO SECO</v>
       </c>
     </row>
@@ -6146,7 +6149,7 @@
         <v>152</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f>CONCATENATE(B171,C171)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOSALAVERRY</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -6164,7 +6167,7 @@
         <v>66</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f>CONCATENATE(B172,C172)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOTrujillo</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -6182,7 +6185,7 @@
         <v>67</v>
       </c>
       <c r="D173" s="1" t="str">
-        <f>CONCATENATE(B173,C173)</f>
+        <f t="shared" si="5"/>
         <v>TRUJILLOVictor Larco</v>
       </c>
       <c r="E173" s="1" t="s">
@@ -6200,7 +6203,7 @@
         <v>203</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f>CONCATENATE(B174,C174)</f>
+        <f t="shared" si="5"/>
         <v>TUMBESCORRALES</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -6218,7 +6221,7 @@
         <v>15</v>
       </c>
       <c r="D175" s="1" t="str">
-        <f>CONCATENATE(B175,C175)</f>
+        <f t="shared" si="5"/>
         <v>UTCUBAMBABAGUA GRANDE</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -6236,7 +6239,7 @@
         <v>141</v>
       </c>
       <c r="D176" s="1" t="str">
-        <f>CONCATENATE(B176,C176)</f>
+        <f t="shared" si="5"/>
         <v>VIRUCHAO</v>
       </c>
       <c r="E176" s="1" t="s">
@@ -6254,7 +6257,7 @@
         <v>69</v>
       </c>
       <c r="D177" s="1" t="str">
-        <f>CONCATENATE(B177,C177)</f>
+        <f t="shared" si="5"/>
         <v>VIRUVirú</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -6272,7 +6275,7 @@
         <v>155</v>
       </c>
       <c r="D178" s="1" t="str">
-        <f>CONCATENATE(B178,C178)</f>
+        <f t="shared" si="5"/>
         <v>YUNGAYRANRAHIRCA</v>
       </c>
       <c r="E178" s="1" t="s">
@@ -6290,11 +6293,44 @@
         <v>32</v>
       </c>
       <c r="D179" s="1" t="str">
-        <f>CONCATENATE(B179,C179)</f>
+        <f t="shared" si="5"/>
         <v>YUNGAYYUNGAY</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>102</v>
+      </c>
+      <c r="B180" t="s">
+        <v>109</v>
+      </c>
+      <c r="C180" t="s">
+        <v>204</v>
+      </c>
+      <c r="D180" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>SULLANASALITRAL</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>16</v>
+      </c>
+      <c r="B181" t="s">
+        <v>24</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>CARAZCARAZ</v>
       </c>
     </row>
   </sheetData>

--- a/localidadesdifarlib.xlsx
+++ b/localidadesdifarlib.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="205">
   <si>
     <t>DEPARTAM</t>
   </si>
@@ -2823,10 +2823,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E173" sqref="E173"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5990,7 +5990,7 @@
         <v>60</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f t="shared" ref="D162:D181" si="5">CONCATENATE(B162,C162)</f>
+        <f t="shared" ref="D162:D183" si="5">CONCATENATE(B162,C162)</f>
         <v>TRUJILLOEL BOSQUE</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -6331,6 +6331,30 @@
       <c r="D181" s="1" t="str">
         <f t="shared" si="5"/>
         <v>CARAZCARAZ</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>70</v>
+      </c>
+      <c r="B182" t="s">
+        <v>70</v>
+      </c>
+      <c r="C182" t="s">
+        <v>144</v>
+      </c>
+      <c r="D182" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>LAMBAYEQUEETEN</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D183" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
   </sheetData>
